--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,62 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7080" windowWidth="19575" xWindow="630" yWindow="840"/>
+    <workbookView xWindow="630" yWindow="840" windowWidth="19575" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IdPedido</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
+    <t>CantProductos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,16 +53,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,10 +76,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -266,7 +235,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -275,13 +244,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -291,7 +260,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -300,7 +269,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -309,7 +278,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -319,12 +288,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -355,7 +324,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -374,7 +343,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -386,75 +355,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="16" customWidth="true" width="15.0" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>122</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>126</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,31 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{D019EA02-064D-45C8-B94F-152A7BAB997E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="840" windowWidth="19575" windowHeight="7080"/>
+    <workbookView windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>IdPedido</t>
   </si>
   <si>
     <t>CantProductos</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,19 +72,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -76,10 +98,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -235,7 +257,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -244,13 +266,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -260,7 +282,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -269,7 +291,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -278,7 +300,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -288,12 +310,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -324,7 +346,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -343,7 +365,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -355,16 +377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,87 +394,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>117</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>118</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>119</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>121</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>122</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>123</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>124</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>125</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>126</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D019EA02-064D-45C8-B94F-152A7BAB997E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>IdPedido</t>
   </si>
@@ -28,35 +22,41 @@
     <t>CantProductos</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,21 +75,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -377,14 +368,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -394,12 +389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
@@ -415,11 +410,26 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>IdPedido</t>
   </si>
@@ -25,19 +25,22 @@
     <t/>
   </si>
   <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +413,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -418,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -426,7 +429,15 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,48 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
-  <si>
-    <t>IdPedido</t>
-  </si>
-  <si>
-    <t>CantProductos</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -92,10 +61,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -251,7 +220,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -260,13 +229,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -276,7 +245,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -285,7 +254,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -294,7 +263,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -304,12 +273,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -340,7 +309,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -359,7 +328,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -376,71 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D723B-CF47-40E3-8DCE-64BD73F37B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>CantProductos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,12 +62,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,19 +364,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>182</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>214</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>189</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,37 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D723B-CF47-40E3-8DCE-64BD73F37B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{903B5AE7-D0FA-427A-8EE6-FC0D972E428A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>IdPedido</t>
   </si>
   <si>
     <t>CantProductos</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,16 +69,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,10 +95,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -244,7 +254,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -253,13 +263,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -269,7 +279,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -278,7 +288,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -287,7 +297,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -297,12 +307,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -333,7 +343,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -352,7 +362,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -364,16 +374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +431,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,47 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{903B5AE7-D0FA-427A-8EE6-FC0D972E428A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95728C9B-B69A-455A-A0C8-AC07ABF7857E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IdPedido</t>
   </si>
   <si>
     <t>CantProductos</t>
   </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,16 +59,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -95,10 +88,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -254,7 +247,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -263,13 +256,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -279,7 +272,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -288,7 +281,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -297,7 +290,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -307,12 +300,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -343,7 +336,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -362,7 +355,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -374,16 +367,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,71 +424,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>229.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>230.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>231.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>233.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>235.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.0</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>225</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>226</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>229</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>230</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>231</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>233</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>234</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>235</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>237</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>238</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>239</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95728C9B-B69A-455A-A0C8-AC07ABF7857E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>IdPedido</t>
-  </si>
-  <si>
-    <t>CantProductos</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,25 +46,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -367,152 +340,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>180</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>181</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>182</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>214</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>189</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>225</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>226</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>229</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>230</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>231</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>233</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>234</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>235</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>237</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>238</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>239</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>CantProductos</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,15 +57,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -61,10 +74,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -220,7 +233,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -229,13 +242,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -245,7 +258,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -254,7 +267,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -263,7 +276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -273,12 +286,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -309,7 +322,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -328,7 +341,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -345,14 +358,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
   <si>
     <t>IdPedido</t>
   </si>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,6 +414,30 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="3">
   <si>
     <t>IdPedido</t>
   </si>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,22 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
   <si>
     <t>IdPedido</t>
   </si>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,15 +376,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>241.0</v>
+        <v>262.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>242.0</v>
+        <v>264.0</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -392,66 +392,18 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243.0</v>
+        <v>265.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>249.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>251.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>254.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="3">
   <si>
     <t>IdPedido</t>
   </si>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,6 +406,62 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>IdPedido</t>
   </si>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,89 +376,9 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>262.0</v>
+        <v>275.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>264.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>265.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>267.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>269.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>271.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>272.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="B12" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
+++ b/Pedidos/DataExcel/Pedidos_Creados_Katalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>IdPedido</t>
   </si>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,6 +382,46 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
